--- a/PaperCollection_FL.xlsx
+++ b/PaperCollection_FL.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Obsidian\FL_Learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70099FF6-CFBE-4FA6-8E1B-966739F9AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t/>
     <r>
       <rPr>
         <u/>
@@ -42,42 +38,140 @@
       <t>https://openreview.net/forum?id=FUiDMCr_W4o</t>
     </r>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Paper Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>example title</t>
+  </si>
+  <si>
+    <t>(what field you think the paper focus on)</t>
+  </si>
+  <si>
+    <t>example author</t>
+  </si>
+  <si>
+    <t>example comference - year</t>
+  </si>
+  <si>
+    <t>link to the paper, canbe linked to pdf, viewpage or any</t>
+  </si>
+  <si>
+    <t>link to your notes. Can be feishu link, github link or any</t>
+  </si>
+  <si>
+    <t>whatever not metioned yet</t>
+  </si>
+  <si>
+    <t>A Statistical Framework for Personalized Federated Learning and Estimation: Theory, Algorithms, and Privacy</t>
+  </si>
+  <si>
+    <t>Data Heterogeneity; Personalization</t>
+  </si>
+  <si>
+    <t>Kaan Ozkara, Antonious M. Girgis, Deepesh Data, Suhas Diggavi</t>
+  </si>
+  <si>
+    <t>ICLR2023</t>
+  </si>
+  <si>
+    <t>On the Pitfalls of Security Evaluation of Robust Federated Learning</t>
+  </si>
+  <si>
+    <t>Security; Data Heterogeneity</t>
+  </si>
+  <si>
+    <t>Momin Ahmad Khan, Virat Shejwalkar, Amir Houmansadr, Fatima M. Anwar</t>
+  </si>
+  <si>
+    <t>S&amp;P2023</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10188636</t>
+  </si>
+  <si>
+    <t>https://github.com/CarlosDJY/FL_Learning/blob/main/Papers_Finished/S%26P2023/On%20the%20Pitfalls%20of%20Security%20Evaluation%20of%20Robust%20Federated%20Learning/On%20the%20Pitfalls%20of%20Security%20Evaluation%20of%20Robust%20Federated%20Learning.md</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.75"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,23 +186,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,56 +529,59 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="28"/>
+    <col min="1" max="1" width="14" style="2"/>
+    <col min="2" max="2" width="42" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2"/>
+    <col min="6" max="6" width="28" style="2" customWidth="1"/>
+    <col min="7" max="7" width="70" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>ID</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="1" t="str">
-        <v>Paper Name</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" s="1" t="str">
-        <v>Category</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="D1" s="1" t="str">
-        <v>Authors</v>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="E1" s="1" t="str">
-        <v>Conference</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="F1" s="1" t="str">
-        <v>Url</v>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="G1" s="1" t="str">
-        <v>Notes</v>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
       </c>
-      <c r="H1" s="1" t="str">
-        <v>Other</v>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -474,30 +597,30 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row customHeight="true" ht="45" r="2">
+    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>example title</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <v>(what field you think the paper focus on)</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <v>example author</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <v>example comference - year</v>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <v>link to the paper, canbe linked to pdf, viewpage or any</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <v>link to your notes. Can be feishu link, github link or any</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <v>whatever not metioned yet</v>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -513,24 +636,24 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <v>A Statistical Framework for Personalized Federated Learning and Estimation: Theory, Algorithms, and Privacy</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <v>Data Heterogeneity; Personalization</v>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>Kaan Ozkara, Antonious M. Girgis, Deepesh Data, Suhas Diggavi</v>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <v>ICLR2023</v>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -548,14 +671,28 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="4" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -571,7 +708,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -594,7 +731,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -617,7 +754,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -640,7 +777,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -663,7 +800,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -686,7 +823,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -709,7 +846,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -732,7 +869,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -755,7 +892,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -778,7 +915,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -801,7 +938,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -824,7 +961,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -847,7 +984,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -870,7 +1007,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -893,7 +1030,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -916,7 +1053,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -939,7 +1076,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -962,7 +1099,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -985,7 +1122,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1008,7 +1145,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1031,7 +1168,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1054,7 +1191,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1077,7 +1214,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1100,7 +1237,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1123,7 +1260,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1146,7 +1283,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1169,7 +1306,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1192,7 +1329,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1215,7 +1352,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1238,7 +1375,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1261,7 +1398,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1284,7 +1421,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1307,7 +1444,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1330,7 +1467,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1353,7 +1490,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1376,7 +1513,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1399,7 +1536,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1422,7 +1559,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1445,7 +1582,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1468,7 +1605,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1491,7 +1628,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1514,7 +1651,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1537,7 +1674,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1560,7 +1697,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1583,7 +1720,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1606,7 +1743,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1629,7 +1766,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1652,7 +1789,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1675,7 +1812,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1698,7 +1835,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1721,7 +1858,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1744,7 +1881,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1767,7 +1904,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1790,7 +1927,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1813,7 +1950,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1836,7 +1973,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1859,7 +1996,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1882,7 +2019,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1905,7 +2042,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1928,7 +2065,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1951,7 +2088,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1974,7 +2111,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1997,7 +2134,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2020,7 +2157,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2043,7 +2180,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2066,7 +2203,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2089,7 +2226,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2112,7 +2249,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2135,7 +2272,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2158,7 +2295,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2181,7 +2318,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2204,7 +2341,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2227,7 +2364,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2250,7 +2387,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2273,7 +2410,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2296,7 +2433,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2319,7 +2456,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2342,7 +2479,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2365,7 +2502,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2388,7 +2525,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2411,7 +2548,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2434,7 +2571,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2457,7 +2594,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2480,7 +2617,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2503,7 +2640,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2526,7 +2663,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2549,7 +2686,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2572,7 +2709,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2595,7 +2732,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2618,7 +2755,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2641,7 +2778,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2664,7 +2801,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2687,7 +2824,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2710,7 +2847,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2733,7 +2870,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2756,7 +2893,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2779,7 +2916,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2802,7 +2939,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2825,7 +2962,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2848,7 +2985,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2871,7 +3008,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2894,7 +3031,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2917,7 +3054,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2940,7 +3077,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2963,7 +3100,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2986,7 +3123,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3009,7 +3146,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3032,7 +3169,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3055,7 +3192,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3078,7 +3215,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3101,7 +3238,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3124,7 +3261,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3147,7 +3284,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3170,7 +3307,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3193,7 +3330,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3216,7 +3353,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3239,7 +3376,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3262,7 +3399,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3285,7 +3422,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3308,7 +3445,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3331,7 +3468,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3354,7 +3491,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3377,7 +3514,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3400,7 +3537,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3423,7 +3560,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3446,7 +3583,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3469,7 +3606,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3492,7 +3629,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3515,7 +3652,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3538,7 +3675,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3561,7 +3698,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3584,7 +3721,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3607,7 +3744,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3630,7 +3767,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3653,7 +3790,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3676,7 +3813,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3699,7 +3836,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3722,7 +3859,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3745,7 +3882,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3768,7 +3905,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3791,7 +3928,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3814,7 +3951,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3837,7 +3974,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3860,7 +3997,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3883,7 +4020,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3906,7 +4043,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3929,7 +4066,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3952,7 +4089,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3975,7 +4112,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3998,7 +4135,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4021,7 +4158,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4044,7 +4181,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4067,7 +4204,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4090,7 +4227,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4113,7 +4250,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4136,7 +4273,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4159,7 +4296,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4182,7 +4319,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4205,7 +4342,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4228,7 +4365,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4251,7 +4388,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4274,7 +4411,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4297,7 +4434,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4320,7 +4457,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4343,7 +4480,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4366,7 +4503,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4389,7 +4526,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4412,7 +4549,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4435,7 +4572,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4458,7 +4595,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4481,7 +4618,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4504,7 +4641,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4527,7 +4664,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4550,7 +4687,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4573,7 +4710,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4596,7 +4733,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4619,7 +4756,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4642,7 +4779,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4665,7 +4802,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4688,7 +4825,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4711,7 +4848,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4734,7 +4871,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4757,7 +4894,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4780,7 +4917,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4803,7 +4940,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4826,7 +4963,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4849,7 +4986,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4872,7 +5009,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4895,7 +5032,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4918,7 +5055,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4941,7 +5078,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4964,7 +5101,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4987,7 +5124,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5010,7 +5147,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5033,7 +5170,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5056,7 +5193,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5079,7 +5216,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5103,10 +5240,13 @@
       <c r="U201" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" display="https://openreview.net/forum?id=FUiDMCr_W4o" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{132B7E28-0D1E-4ABB-8D50-B4BFC53E0310}"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://github.com/CarlosDJY/FL_Learning/blob/main/Papers_Finished/S%26P2023/On the Pitfalls of Security Evaluation of Robust Federated Learning/On the Pitfalls of Security Evaluation of Robust Federated Learning.md" xr:uid="{57159575-88E6-40B1-88F8-12A30764FB45}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId4"/>
 </worksheet>
 </file>